--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_47.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_47.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.996448364368834</v>
+        <v>0.9199252148854584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7192500433428954</v>
+        <v>0.7435707905264509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7170984900611206</v>
+        <v>0.7193456972845549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993238084769849</v>
+        <v>0.6060790770193116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01490545496910805</v>
+        <v>0.3360567433247555</v>
       </c>
       <c r="G2" t="n">
-        <v>1.877376252900741</v>
+        <v>1.714743304497562</v>
       </c>
       <c r="H2" t="n">
-        <v>1.011922297479335</v>
+        <v>1.003884167541672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004217199335213468</v>
+        <v>0.8428225260253374</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1717095148821295</v>
+        <v>1.51708857647583</v>
       </c>
       <c r="K2" t="n">
-        <v>0.122087898536702</v>
+        <v>0.5797040135489451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.002079006223122</v>
+        <v>0.725457879607286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1272854331342001</v>
+        <v>0.604383213558464</v>
       </c>
       <c r="N2" t="n">
-        <v>138.4120560554433</v>
+        <v>36.18095050866931</v>
       </c>
       <c r="O2" t="n">
-        <v>217.6389846718764</v>
+        <v>56.90183953142871</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9964900027703829</v>
+        <v>0.9201218365280237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7192225225497059</v>
+        <v>0.7433404833051545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7164934984824994</v>
+        <v>0.7177675477121928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992399382099476</v>
+        <v>0.6021068293750798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01473070750519968</v>
+        <v>0.3352315643527093</v>
       </c>
       <c r="G3" t="n">
-        <v>1.877560284571521</v>
+        <v>1.716283369946838</v>
       </c>
       <c r="H3" t="n">
-        <v>1.014086317276636</v>
+        <v>1.009529117055641</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004740272491789928</v>
+        <v>0.85132143938129</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1700650786138623</v>
+        <v>1.504793226755525</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1213701260821611</v>
+        <v>0.5789918517152977</v>
       </c>
       <c r="L3" t="n">
-        <v>1.002054632524654</v>
+        <v>0.7261320109532241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1265371036202755</v>
+        <v>0.6036407335211801</v>
       </c>
       <c r="N3" t="n">
-        <v>138.4356420361586</v>
+        <v>36.18586749815497</v>
       </c>
       <c r="O3" t="n">
-        <v>217.6625706525916</v>
+        <v>56.90675652091438</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9965284517441092</v>
+        <v>0.9203071297982549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7191940325339062</v>
+        <v>0.7431032828613158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715893021625816</v>
+        <v>0.7161710740386997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9991498099626784</v>
+        <v>0.5981323823755826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0145693453875723</v>
+        <v>0.3344539281359545</v>
       </c>
       <c r="G4" t="n">
-        <v>1.877750797438358</v>
+        <v>1.717869530406996</v>
       </c>
       <c r="H4" t="n">
-        <v>1.016234188175344</v>
+        <v>1.015239610816864</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005302374753546381</v>
+        <v>0.8598250584181344</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1684376870324245</v>
+        <v>1.492523107398946</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1207035433927783</v>
+        <v>0.5783199185018224</v>
       </c>
       <c r="L4" t="n">
-        <v>1.002032125808326</v>
+        <v>0.7267673021654455</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1258421431257893</v>
+        <v>0.6029401947197137</v>
       </c>
       <c r="N4" t="n">
-        <v>138.4576711771429</v>
+        <v>36.19051228484958</v>
       </c>
       <c r="O4" t="n">
-        <v>217.6845997935759</v>
+        <v>56.91140130760898</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9965638277834153</v>
+        <v>0.9204814151464392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7191645744125219</v>
+        <v>0.7428599460148336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7152968733949601</v>
+        <v>0.7145572851797755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9990536682772813</v>
+        <v>0.5941558801932466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01442087971833631</v>
+        <v>0.3337224898131884</v>
       </c>
       <c r="G5" t="n">
-        <v>1.877947784031697</v>
+        <v>1.719496725019885</v>
       </c>
       <c r="H5" t="n">
-        <v>1.018366575830455</v>
+        <v>1.021012039992381</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005901980986312065</v>
+        <v>0.868333074668457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1668325812324006</v>
+        <v>1.480276532464782</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1200869673125952</v>
+        <v>0.577687190279643</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002011417882879</v>
+        <v>0.7273648519306488</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1251993181253844</v>
+        <v>0.6022805299471881</v>
       </c>
       <c r="N5" t="n">
-        <v>138.4781562843335</v>
+        <v>36.19489100038208</v>
       </c>
       <c r="O5" t="n">
-        <v>217.7050849007665</v>
+        <v>56.91578002314149</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9965961955243415</v>
+        <v>0.9206448021479824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7191341401129148</v>
+        <v>0.7426111473330229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7147052199527661</v>
+        <v>0.7129258494008044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989516574066892</v>
+        <v>0.5901743102357506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01428503923385824</v>
+        <v>0.3330367895198734</v>
       </c>
       <c r="G6" t="n">
-        <v>1.878151298333307</v>
+        <v>1.721160442950766</v>
       </c>
       <c r="H6" t="n">
-        <v>1.020482885887145</v>
+        <v>1.02684759117768</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006538191528744258</v>
+        <v>0.8768519337931039</v>
       </c>
       <c r="J6" t="n">
-        <v>0.165246878925655</v>
+        <v>1.468046472640875</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1195200369555592</v>
+        <v>0.5770933975708554</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00199247091258</v>
+        <v>0.7279250359359397</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1246082523693418</v>
+        <v>0.6016614582534671</v>
       </c>
       <c r="N6" t="n">
-        <v>138.4970849935915</v>
+        <v>36.19900463213079</v>
       </c>
       <c r="O6" t="n">
-        <v>217.7240136100246</v>
+        <v>56.9198936548902</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9966256326046563</v>
+        <v>0.9207975314006233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7191028397397078</v>
+        <v>0.742357686304443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7141178479514846</v>
+        <v>0.7112769923788069</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9988440378174844</v>
+        <v>0.5861853514224904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01416149810503226</v>
+        <v>0.3323958175187686</v>
       </c>
       <c r="G7" t="n">
-        <v>1.878360604073067</v>
+        <v>1.722855338015961</v>
       </c>
       <c r="H7" t="n">
-        <v>1.022583881477944</v>
+        <v>1.032745457139141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007209381930579739</v>
+        <v>0.8853866019132022</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1636794125896099</v>
+        <v>1.455830449987849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1190020928598832</v>
+        <v>0.5765377849879126</v>
       </c>
       <c r="L7" t="n">
-        <v>1.001975239450933</v>
+        <v>0.7284486790878513</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1240682583212207</v>
+        <v>0.6010821920925917</v>
       </c>
       <c r="N7" t="n">
-        <v>138.5144567958697</v>
+        <v>36.20285759751038</v>
       </c>
       <c r="O7" t="n">
-        <v>217.7413854123027</v>
+        <v>56.92374662026979</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9966522158056643</v>
+        <v>0.9209398256435242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7190708140543522</v>
+        <v>0.7421002669954502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7135349376686687</v>
+        <v>0.7096105008464142</v>
       </c>
       <c r="E8" t="n">
-        <v>0.998730936842997</v>
+        <v>0.5821867942987917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01404993409714737</v>
+        <v>0.3317986390212584</v>
       </c>
       <c r="G8" t="n">
-        <v>1.878574759978504</v>
+        <v>1.724576702120503</v>
       </c>
       <c r="H8" t="n">
-        <v>1.024668917760496</v>
+        <v>1.038706400721779</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007914758052855939</v>
+        <v>0.8939418063180659</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1621311551507797</v>
+        <v>1.443618351352532</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1185324179165656</v>
+        <v>0.5760196515929455</v>
       </c>
       <c r="L8" t="n">
-        <v>1.001959678552782</v>
+        <v>0.7289365450635115</v>
       </c>
       <c r="M8" t="n">
-        <v>0.123578588343205</v>
+        <v>0.6005420006863169</v>
       </c>
       <c r="N8" t="n">
-        <v>138.5302751476158</v>
+        <v>36.20645400607746</v>
       </c>
       <c r="O8" t="n">
-        <v>217.7572037640488</v>
+        <v>56.92734302883687</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9966760699061495</v>
+        <v>0.9210715451020233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7190378872370655</v>
+        <v>0.7418395014915322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7129562808774539</v>
+        <v>0.7079243082442549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9986125874745034</v>
+        <v>0.5781697869452705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01394982354034029</v>
+        <v>0.331245840631698</v>
       </c>
       <c r="G9" t="n">
-        <v>1.878794941757314</v>
+        <v>1.726320442245916</v>
       </c>
       <c r="H9" t="n">
-        <v>1.026738739550223</v>
+        <v>1.044737813888638</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008652866800372253</v>
+        <v>0.9025364863343975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.160600609298504</v>
+        <v>1.431401633416393</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1181093710945084</v>
+        <v>0.5755396082214481</v>
       </c>
       <c r="L9" t="n">
-        <v>1.001945715176888</v>
+        <v>0.7293881546355083</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1231375315421051</v>
+        <v>0.6000415208746681</v>
       </c>
       <c r="N9" t="n">
-        <v>138.5445768404655</v>
+        <v>36.20978891668818</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7715054568985</v>
+        <v>56.93067793944759</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9966972453445879</v>
+        <v>0.9211929131237617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.719004166543435</v>
+        <v>0.7415764896118497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7123822010091989</v>
+        <v>0.7062201672395376</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9984891554306849</v>
+        <v>0.5741350179780591</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01386095475511817</v>
+        <v>0.3307364850078166</v>
       </c>
       <c r="G10" t="n">
-        <v>1.879020432190891</v>
+        <v>1.728079203896412</v>
       </c>
       <c r="H10" t="n">
-        <v>1.028792189951907</v>
+        <v>1.050833427450739</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009422674636492727</v>
+        <v>0.9111691686177922</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1590882071815448</v>
+        <v>1.419172163235237</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1177325560544668</v>
+        <v>0.5750969353142273</v>
       </c>
       <c r="L10" t="n">
-        <v>1.00193331979829</v>
+        <v>0.729804273567183</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1227446747056943</v>
+        <v>0.5995800024653277</v>
       </c>
       <c r="N10" t="n">
-        <v>138.5573588038845</v>
+        <v>36.21286667695261</v>
       </c>
       <c r="O10" t="n">
-        <v>217.7842874203175</v>
+        <v>56.93375569971202</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9967157655593931</v>
+        <v>0.9213038801321317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7189698102470774</v>
+        <v>0.7413119032816176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7118126689545942</v>
+        <v>0.7044945683724686</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9983607736918916</v>
+        <v>0.5700731757765071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01378322937547208</v>
+        <v>0.3302707802120313</v>
       </c>
       <c r="G11" t="n">
-        <v>1.879250172902831</v>
+        <v>1.729848493904982</v>
       </c>
       <c r="H11" t="n">
-        <v>1.030829373087863</v>
+        <v>1.057005794542274</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01022335220352109</v>
+        <v>0.9198597760593172</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1575964940166166</v>
+        <v>1.40691464591633</v>
       </c>
       <c r="K11" t="n">
-        <v>0.117401999026729</v>
+        <v>0.5746919002491956</v>
       </c>
       <c r="L11" t="n">
-        <v>1.001922478696941</v>
+        <v>0.7301847318815944</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1224000451809383</v>
+        <v>0.5991577242190393</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5686053769928</v>
+        <v>36.2156848297769</v>
       </c>
       <c r="O11" t="n">
-        <v>217.7955339934258</v>
+        <v>56.93657385253631</v>
       </c>
     </row>
   </sheetData>
